--- a/Unidades_color.xlsx
+++ b/Unidades_color.xlsx
@@ -449,40 +449,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>VERDE</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B3" t="n">
         <v>29</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>VERDE</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ROJO</t>
+          <t>VERDE</t>
         </is>
       </c>
     </row>
